--- a/FALEC-w1-core-web/WebContent/reportes/FALECPV-VentasEmitidas.xlsx
+++ b/FALEC-w1-core-web/WebContent/reportes/FALECPV-VentasEmitidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/projects/gitrepositorio/FacturaElectronica-App/FALEC-w1-core-web/WebContent/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B41190-22BF-3D40-AC41-82AA2319A9EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE8CA3-36EC-9D45-93F5-0A2F5D156E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7580" windowWidth="35960" windowHeight="18240" xr2:uid="{E9788733-D204-D84A-A824-443E01B2DF94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ESTABLECIMEINTO :</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>ICE</t>
+  </si>
+  <si>
+    <t>TOT SIN IVA</t>
   </si>
 </sst>
 </file>
@@ -163,12 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32A76B9-2613-7147-BFF0-D21843D4C7F8}">
-  <dimension ref="A2:Q9"/>
+  <dimension ref="A2:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,42 +517,43 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="10" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
@@ -554,15 +561,16 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="3"/>
@@ -570,15 +578,16 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
@@ -586,15 +595,16 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -602,8 +612,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -641,24 +652,27 @@
         <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A2:R2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>

--- a/FALEC-w1-core-web/WebContent/reportes/FALECPV-VentasEmitidas.xlsx
+++ b/FALEC-w1-core-web/WebContent/reportes/FALECPV-VentasEmitidas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/projects/gitrepositorio/FacturaElectronica-App/FALEC-w1-core-web/WebContent/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE8CA3-36EC-9D45-93F5-0A2F5D156E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E44F8D-8120-AC4F-B749-BD63C76911C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7580" windowWidth="35960" windowHeight="18240" xr2:uid="{E9788733-D204-D84A-A824-443E01B2DF94}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ESTABLECIMEINTO :</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>TOT SIN IVA</t>
+  </si>
+  <si>
+    <t>EMPRESA:</t>
+  </si>
+  <si>
+    <t>ESTABLECIMIENTO</t>
   </si>
 </sst>
 </file>
@@ -501,30 +507,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32A76B9-2613-7147-BFF0-D21843D4C7F8}">
-  <dimension ref="A2:R9"/>
+  <dimension ref="A2:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="19" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -545,25 +552,29 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -571,16 +582,17 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -588,16 +600,17 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -605,78 +618,83 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
